--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-17T13:53:20+00:00</t>
+    <t>2025-06-18T12:49:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-18T12:49:42+00:00</t>
+    <t>2025-06-19T12:31:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T12:31:56+00:00</t>
+    <t>2025-06-19T12:56:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T12:56:09+00:00</t>
+    <t>2025-06-19T13:39:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T13:39:18+00:00</t>
+    <t>2025-06-20T10:31:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T10:31:38+00:00</t>
+    <t>2025-06-20T12:06:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -753,7 +753,7 @@
     <t>PractitionerRole.practitioner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/sas/StructureDefinition/sas-practitioner-aggregator)
 </t>
   </si>
   <si>
@@ -769,7 +769,7 @@
     <t>PractitionerRole.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/sas/StructureDefinition/sas-organization)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/sas/StructureDefinition/sas-organization-lrm)
 </t>
   </si>
   <si>
@@ -1377,7 +1377,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="70.55078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="79.22265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T12:06:52+00:00</t>
+    <t>2025-06-20T16:26:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T16:26:05+00:00</t>
+    <t>2025-06-23T15:53:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T15:53:38+00:00</t>
+    <t>2025-06-25T07:29:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T07:29:13+00:00</t>
+    <t>2025-06-25T08:20:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T08:20:21+00:00</t>
+    <t>2025-07-01T07:34:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-01T07:34:24+00:00</t>
+    <t>2025-07-01T14:16:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -753,7 +753,7 @@
     <t>PractitionerRole.practitioner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/sas/StructureDefinition/sas-practitioner-aggregator)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/sas/StructureDefinition/sas-practitioner-lrm)
 </t>
   </si>
   <si>
@@ -1377,7 +1377,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="79.22265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="73.73046875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-01T14:16:04+00:00</t>
+    <t>2025-07-01T15:09:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-01T15:09:42+00:00</t>
+    <t>2025-07-09T16:03:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T16:03:26+00:00</t>
+    <t>2025-08-18T13:46:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-18T13:46:32+00:00</t>
+    <t>2025-08-19T13:46:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T13:46:05+00:00</t>
+    <t>2025-08-19T14:52:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T14:52:01+00:00</t>
+    <t>2025-08-22T10:17:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T10:17:30+00:00</t>
+    <t>2025-08-22T12:56:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T12:56:47+00:00</t>
+    <t>2025-08-22T13:23:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T13:23:20+00:00</t>
+    <t>2025-08-22T14:29:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T14:29:38+00:00</t>
+    <t>2025-08-22T15:03:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T15:03:40+00:00</t>
+    <t>2025-08-22T16:11:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T16:11:41+00:00</t>
+    <t>2025-08-25T06:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-25T06:59:32+00:00</t>
+    <t>2025-08-25T09:39:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-25T09:39:34+00:00</t>
+    <t>2025-08-25T11:15:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-25T11:15:03+00:00</t>
+    <t>2025-08-26T14:01:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-26T14:01:05+00:00</t>
+    <t>2025-08-26T14:47:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-26T14:47:20+00:00</t>
+    <t>2025-08-26T15:19:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-26T15:19:13+00:00</t>
+    <t>2025-08-28T09:04:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T09:04:45+00:00</t>
+    <t>2025-08-28T13:33:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T13:33:26+00:00</t>
+    <t>2025-08-28T13:53:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T13:53:19+00:00</t>
+    <t>2025-08-29T14:53:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T14:53:04+00:00</t>
+    <t>2025-09-02T14:06:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-02T14:06:24+00:00</t>
+    <t>2025-09-02T14:14:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-02T14:14:48+00:00</t>
+    <t>2025-09-02T15:31:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-02T15:31:32+00:00</t>
+    <t>2025-09-02T16:40:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-02T16:40:07+00:00</t>
+    <t>2025-09-03T15:56:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-03T15:56:47+00:00</t>
+    <t>2025-09-03T16:17:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-03T16:17:34+00:00</t>
+    <t>2025-09-04T08:14:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T08:14:53+00:00</t>
+    <t>2025-09-04T08:29:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T08:29:09+00:00</t>
+    <t>2025-09-04T13:01:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T13:01:54+00:00</t>
+    <t>2025-09-04T13:30:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T13:30:13+00:00</t>
+    <t>2025-09-04T16:12:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T16:12:35+00:00</t>
+    <t>2025-09-08T10:20:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T10:20:18+00:00</t>
+    <t>2025-09-08T13:03:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T13:03:11+00:00</t>
+    <t>2025-09-08T13:31:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-practitioner-role-lrm.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T13:31:50+00:00</t>
+    <t>2025-09-09T08:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
